--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1649053.783425315</v>
+        <v>1648522.463394735</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>274964.6871733051</v>
+        <v>274964.6871733048</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>290.6229818124534</v>
       </c>
       <c r="F2" t="n">
-        <v>157.2773841362667</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -822,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>196.5703260091826</v>
+        <v>88.41646493927657</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>92.22955362389978</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>189.4692876291049</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>120.6448120999464</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1110,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>77.83770527368694</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>129.0632185641026</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>267.8388318630743</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.133574646794665</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="11">
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T11" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284548</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.65344255059084</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1578,13 +1578,13 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S13" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>18.60772619524658</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1624,7 +1624,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H14" t="n">
-        <v>286.1292424873039</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T14" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463371</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1767,22 +1767,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>120.9316805576372</v>
+        <v>103.1785566208055</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.62897272389382</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.400138899798</v>
@@ -1900,7 +1900,7 @@
         <v>217.819703146337</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284548</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T19" t="n">
         <v>243.400138899798</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.7337002351977</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2134,10 +2134,10 @@
         <v>82.5714639696243</v>
       </c>
       <c r="T20" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463362</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284557</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>8.124603117096468</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T22" t="n">
-        <v>40.05780385989043</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
         <v>275.6484088706061</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932887</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.5652879271376</v>
@@ -2535,10 +2535,10 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>61.63879803017188</v>
       </c>
       <c r="W25" t="n">
-        <v>25.87120946670176</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H28" t="n">
-        <v>78.06091832034008</v>
+        <v>22.74710563292925</v>
       </c>
       <c r="I28" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>137.1531489185915</v>
+        <v>40.05780385989043</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3204,10 +3204,10 @@
         <v>163.9305612960722</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.62897272389382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>40.05780385989043</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U34" t="n">
         <v>275.6484088706061</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3731502167427</v>
+        <v>397.3731502167426</v>
       </c>
       <c r="H35" t="n">
         <v>286.1292424873029</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962423</v>
       </c>
       <c r="T35" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284551</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864818</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9305612960722</v>
+        <v>78.67134719963792</v>
       </c>
       <c r="H37" t="n">
         <v>138.4604679489429</v>
       </c>
       <c r="I37" t="n">
-        <v>38.23884529708022</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.5652879271331</v>
       </c>
       <c r="T37" t="n">
         <v>243.400138899798</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884115</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3731502167427</v>
+        <v>397.3731502167426</v>
       </c>
       <c r="H38" t="n">
         <v>286.1292424873029</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962457</v>
       </c>
       <c r="T38" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284539</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3568,10 +3568,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633421</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>65.88054612520291</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9305612960722</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.5652879271376</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U40" t="n">
         <v>275.6484088706061</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>218.4398531414505</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884117</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3731502167427</v>
+        <v>397.3731502167426</v>
       </c>
       <c r="H41" t="n">
         <v>286.1292424873029</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962423</v>
       </c>
       <c r="T41" t="n">
-        <v>217.819703146337</v>
+        <v>217.8197031463371</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284548</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H43" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>59.56456769995086</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.5652879271376</v>
+        <v>22.74710563292932</v>
       </c>
       <c r="T43" t="n">
         <v>243.400138899798</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884104</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3731502167427</v>
+        <v>397.3731502167426</v>
       </c>
       <c r="H44" t="n">
         <v>286.1292424873029</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.5714639696243</v>
+        <v>82.57146396962423</v>
       </c>
       <c r="T44" t="n">
         <v>217.819703146337</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6292234284552</v>
+        <v>256.6292234284551</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4604679489429</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.72175696648036</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>108.1196548257135</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>687.7796263806116</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C2" t="n">
-        <v>653.677557604439</v>
+        <v>779.9109359020549</v>
       </c>
       <c r="D2" t="n">
-        <v>621.8081768192876</v>
+        <v>351.3292616393232</v>
       </c>
       <c r="E2" t="n">
-        <v>193.2265025565559</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
         <v>687.9235674375537</v>
@@ -4345,10 +4345,10 @@
         <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.079196865519</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>437.0247332457074</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>611.7745576915773</v>
+        <v>943.243825464227</v>
       </c>
       <c r="C4" t="n">
-        <v>439.2128461748023</v>
+        <v>770.682113947452</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2128461748023</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4488,19 +4488,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1031.012847096456</v>
+        <v>1607.873869535694</v>
       </c>
       <c r="X4" t="n">
-        <v>1031.012847096456</v>
+        <v>1362.482114869106</v>
       </c>
       <c r="Y4" t="n">
-        <v>803.5931764105644</v>
+        <v>1135.062444183214</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1022.662609157507</v>
+        <v>1324.113331682428</v>
       </c>
       <c r="C5" t="n">
-        <v>584.5201363409308</v>
+        <v>1230.952166405762</v>
       </c>
       <c r="D5" t="n">
-        <v>552.6507555557794</v>
+        <v>1199.082785620611</v>
       </c>
       <c r="E5" t="n">
-        <v>361.2676367385017</v>
+        <v>765.3080407789058</v>
       </c>
       <c r="F5" t="n">
-        <v>337.4406111881135</v>
+        <v>337.4406111881136</v>
       </c>
       <c r="G5" t="n">
-        <v>337.4406111881135</v>
+        <v>337.4406111881136</v>
       </c>
       <c r="H5" t="n">
-        <v>48.31045663132973</v>
+        <v>48.31045663132983</v>
       </c>
       <c r="I5" t="n">
-        <v>47.89366725846973</v>
+        <v>47.89366725846984</v>
       </c>
       <c r="J5" t="n">
-        <v>483.1483547113876</v>
+        <v>47.89366725846984</v>
       </c>
       <c r="K5" t="n">
-        <v>483.1483547113876</v>
+        <v>640.577799582034</v>
       </c>
       <c r="L5" t="n">
-        <v>483.1483547113876</v>
+        <v>1086.346379888276</v>
       </c>
       <c r="M5" t="n">
-        <v>483.1483547113876</v>
+        <v>1086.346379888276</v>
       </c>
       <c r="N5" t="n">
-        <v>493.6622475647093</v>
+        <v>1086.346379888276</v>
       </c>
       <c r="O5" t="n">
-        <v>1086.346379888272</v>
+        <v>1086.346379888276</v>
       </c>
       <c r="P5" t="n">
-        <v>1679.030512211835</v>
+        <v>1679.03051221184</v>
       </c>
       <c r="Q5" t="n">
-        <v>2225.52929817043</v>
+        <v>2225.529298170435</v>
       </c>
       <c r="R5" t="n">
-        <v>2394.683362923487</v>
+        <v>2394.683362923492</v>
       </c>
       <c r="S5" t="n">
-        <v>2311.031489107324</v>
+        <v>2394.683362923492</v>
       </c>
       <c r="T5" t="n">
-        <v>2090.964261980362</v>
+        <v>2174.616135796531</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.741959297379</v>
+        <v>2174.616135796531</v>
       </c>
       <c r="V5" t="n">
-        <v>1469.125009231205</v>
+        <v>2174.616135796531</v>
       </c>
       <c r="W5" t="n">
-        <v>1468.309958682643</v>
+        <v>2173.801085247968</v>
       </c>
       <c r="X5" t="n">
-        <v>1049.167495261954</v>
+        <v>1754.658621827279</v>
       </c>
       <c r="Y5" t="n">
-        <v>1044.921775602011</v>
+        <v>1750.412902167336</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>554.0654122497625</v>
+        <v>554.0654122497626</v>
       </c>
       <c r="C6" t="n">
-        <v>447.6089510864048</v>
+        <v>447.6089510864049</v>
       </c>
       <c r="D6" t="n">
         <v>352.5186622329581</v>
       </c>
       <c r="E6" t="n">
-        <v>258.3982475599118</v>
+        <v>258.3982475599119</v>
       </c>
       <c r="F6" t="n">
-        <v>175.0144091760734</v>
+        <v>175.0144091760735</v>
       </c>
       <c r="G6" t="n">
-        <v>89.62931944225727</v>
+        <v>89.62931944225737</v>
       </c>
       <c r="H6" t="n">
-        <v>47.89366725846973</v>
+        <v>47.89366725846984</v>
       </c>
       <c r="I6" t="n">
-        <v>73.95734041892734</v>
+        <v>73.95734041892743</v>
       </c>
       <c r="J6" t="n">
-        <v>398.5156653851396</v>
+        <v>398.5156653851398</v>
       </c>
       <c r="K6" t="n">
-        <v>991.1997977087026</v>
+        <v>991.1997977087041</v>
       </c>
       <c r="L6" t="n">
-        <v>991.1997977087026</v>
+        <v>991.1997977087041</v>
       </c>
       <c r="M6" t="n">
-        <v>991.1997977087026</v>
+        <v>991.1997977087041</v>
       </c>
       <c r="N6" t="n">
-        <v>991.1997977087026</v>
+        <v>1053.221712010863</v>
       </c>
       <c r="O6" t="n">
-        <v>991.1997977087026</v>
+        <v>1053.221712010863</v>
       </c>
       <c r="P6" t="n">
         <v>1053.221712010863</v>
@@ -4685,13 +4685,13 @@
         <v>1142.045282578231</v>
       </c>
       <c r="W6" t="n">
-        <v>956.7225283114249</v>
+        <v>956.7225283114251</v>
       </c>
       <c r="X6" t="n">
-        <v>801.8550925503049</v>
+        <v>801.855092550305</v>
       </c>
       <c r="Y6" t="n">
-        <v>675.3693133295257</v>
+        <v>675.3693133295258</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>936.3513886095529</v>
+        <v>614.8954951086723</v>
       </c>
       <c r="C7" t="n">
-        <v>814.4879420439505</v>
+        <v>442.3337835918973</v>
       </c>
       <c r="D7" t="n">
-        <v>648.6099492454732</v>
+        <v>276.45579079342</v>
       </c>
       <c r="E7" t="n">
-        <v>478.8519454962105</v>
+        <v>276.45579079342</v>
       </c>
       <c r="F7" t="n">
-        <v>302.1448914579668</v>
+        <v>276.45579079342</v>
       </c>
       <c r="G7" t="n">
-        <v>136.5536164837944</v>
+        <v>276.45579079342</v>
       </c>
       <c r="H7" t="n">
-        <v>136.5536164837944</v>
+        <v>136.5536164837945</v>
       </c>
       <c r="I7" t="n">
-        <v>47.89366725846973</v>
+        <v>47.89366725846984</v>
       </c>
       <c r="J7" t="n">
-        <v>47.89366725846973</v>
+        <v>134.4733524231597</v>
       </c>
       <c r="K7" t="n">
-        <v>139.3618927565124</v>
+        <v>139.3618927565178</v>
       </c>
       <c r="L7" t="n">
-        <v>557.5717745244734</v>
+        <v>557.5717745244789</v>
       </c>
       <c r="M7" t="n">
-        <v>1017.055641705386</v>
+        <v>1017.055641705392</v>
       </c>
       <c r="N7" t="n">
-        <v>1459.314444863031</v>
+        <v>1459.314444863036</v>
       </c>
       <c r="O7" t="n">
-        <v>1878.983694088812</v>
+        <v>1878.983694088818</v>
       </c>
       <c r="P7" t="n">
-        <v>2226.490588059154</v>
+        <v>2226.49058805916</v>
       </c>
       <c r="Q7" t="n">
-        <v>2394.683362923487</v>
+        <v>2394.683362923492</v>
       </c>
       <c r="R7" t="n">
-        <v>2373.265541628859</v>
+        <v>2373.265541628864</v>
       </c>
       <c r="S7" t="n">
-        <v>2214.024172926855</v>
+        <v>2214.024172926861</v>
       </c>
       <c r="T7" t="n">
-        <v>1968.14472650531</v>
+        <v>1968.144726505316</v>
       </c>
       <c r="U7" t="n">
-        <v>1968.14472650531</v>
+        <v>1689.711725758421</v>
       </c>
       <c r="V7" t="n">
-        <v>1681.189218375741</v>
+        <v>1402.756217628851</v>
       </c>
       <c r="W7" t="n">
-        <v>1409.162813962032</v>
+        <v>1130.729813215143</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.771059295445</v>
+        <v>885.3380585485554</v>
       </c>
       <c r="Y7" t="n">
-        <v>936.3513886095529</v>
+        <v>806.7141138276595</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1111.798517333797</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C8" t="n">
-        <v>673.6560445172204</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D8" t="n">
-        <v>641.786663732069</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E8" t="n">
-        <v>612.0523229307682</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F8" t="n">
-        <v>184.184893339976</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>184.184893339976</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,16 +4810,16 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.486270899337</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1946.384211519051</v>
+        <v>1411.97692004016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1538.098087818705</v>
+        <v>1003.690796339813</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.7013733912472</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>790.1396618744722</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>624.2616690759949</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -5007,7 +5007,7 @@
         <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.519992110234</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="11">
@@ -5029,52 +5029,52 @@
         <v>1220.517729944102</v>
       </c>
       <c r="F11" t="n">
-        <v>792.6503003533097</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G11" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H11" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I11" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J11" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K11" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L11" t="n">
-        <v>1181.22304338293</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M11" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N11" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O11" t="n">
         <v>3564.895917787388</v>
       </c>
       <c r="P11" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q11" t="n">
         <v>4942.372499534134</v>
       </c>
       <c r="R11" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S11" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T11" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U11" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V11" t="n">
         <v>4186.928344622849</v>
@@ -5083,10 +5083,10 @@
         <v>3782.072890033883</v>
       </c>
       <c r="X11" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y11" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H12" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I12" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J12" t="n">
-        <v>279.0914692916646</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K12" t="n">
-        <v>280.0069308282162</v>
+        <v>454.5121154083432</v>
       </c>
       <c r="L12" t="n">
-        <v>281.2378818390805</v>
+        <v>455.7430664192074</v>
       </c>
       <c r="M12" t="n">
-        <v>282.6743436085508</v>
+        <v>457.1795281886778</v>
       </c>
       <c r="N12" t="n">
-        <v>284.1488242467336</v>
+        <v>458.6540088268605</v>
       </c>
       <c r="O12" t="n">
-        <v>285.4976859674962</v>
+        <v>460.0028705476232</v>
       </c>
       <c r="P12" t="n">
         <v>1106.303432895356</v>
@@ -5196,7 +5196,7 @@
         <v>190.757956939015</v>
       </c>
       <c r="I13" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J13" t="n">
         <v>189.1595596197742</v>
@@ -5226,25 +5226,25 @@
         <v>2702.415550495654</v>
       </c>
       <c r="S13" t="n">
-        <v>2543.258694003596</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="T13" t="n">
-        <v>2297.399967842184</v>
+        <v>2456.556824334242</v>
       </c>
       <c r="U13" t="n">
-        <v>2297.399967842184</v>
+        <v>2178.124088101306</v>
       </c>
       <c r="V13" t="n">
-        <v>2010.444459712614</v>
+        <v>1891.168579971737</v>
       </c>
       <c r="W13" t="n">
-        <v>1738.418055298906</v>
+        <v>1619.142175558028</v>
       </c>
       <c r="X13" t="n">
-        <v>1493.026300632318</v>
+        <v>1600.346492532527</v>
       </c>
       <c r="Y13" t="n">
-        <v>1265.606629946426</v>
+        <v>1372.926821846635</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F14" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G14" t="n">
-        <v>391.2632799323586</v>
+        <v>391.2632799323575</v>
       </c>
       <c r="H14" t="n">
         <v>102.243843076496</v>
@@ -5284,22 +5284,22 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L14" t="n">
-        <v>1375.768056541166</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M14" t="n">
-        <v>1455.309353437234</v>
+        <v>2750.194401626738</v>
       </c>
       <c r="N14" t="n">
-        <v>2582.930975126826</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O14" t="n">
-        <v>3564.895917787388</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P14" t="n">
-        <v>4394.729484459996</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q14" t="n">
-        <v>4942.372499534134</v>
+        <v>5111.526564287191</v>
       </c>
       <c r="R14" t="n">
         <v>5112.192153824798</v>
@@ -5311,19 +5311,19 @@
         <v>4808.766732495544</v>
       </c>
       <c r="U14" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V14" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X14" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,22 +5354,22 @@
         <v>102.243843076496</v>
       </c>
       <c r="I15" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J15" t="n">
-        <v>427.5329807113339</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K15" t="n">
-        <v>428.4484422478856</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L15" t="n">
-        <v>429.6793932587498</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M15" t="n">
-        <v>431.1158550282202</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N15" t="n">
-        <v>432.590335666403</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O15" t="n">
         <v>1105.220852446694</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>795.3552749945038</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C16" t="n">
-        <v>795.3552749945038</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D16" t="n">
-        <v>629.4772821960265</v>
+        <v>637.2722007922869</v>
       </c>
       <c r="E16" t="n">
-        <v>507.3240695115445</v>
+        <v>533.0514365288469</v>
       </c>
       <c r="F16" t="n">
-        <v>330.6170154733007</v>
+        <v>356.3443824906032</v>
       </c>
       <c r="G16" t="n">
-        <v>330.6170154733007</v>
+        <v>190.757956939015</v>
       </c>
       <c r="H16" t="n">
         <v>190.757956939015</v>
@@ -5460,28 +5460,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R16" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S16" t="n">
-        <v>2543.258694003596</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T16" t="n">
-        <v>2297.399967842184</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.967231609248</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V16" t="n">
-        <v>1732.011723479679</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W16" t="n">
-        <v>1459.98531906597</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X16" t="n">
-        <v>1214.593564399383</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y16" t="n">
-        <v>987.173893713491</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E17" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F17" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533097</v>
       </c>
       <c r="G17" t="n">
         <v>391.2632799323575</v>
       </c>
       <c r="H17" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I17" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J17" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K17" t="n">
-        <v>938.8412695764827</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L17" t="n">
-        <v>2015.573335341108</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M17" t="n">
-        <v>3174.481703437581</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N17" t="n">
-        <v>4302.103325127173</v>
+        <v>2582.930975126825</v>
       </c>
       <c r="O17" t="n">
-        <v>5108.858643332436</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P17" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459995</v>
       </c>
       <c r="Q17" t="n">
-        <v>5111.526564287191</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R17" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824797</v>
       </c>
       <c r="S17" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.78663466356</v>
       </c>
       <c r="T17" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495543</v>
       </c>
       <c r="U17" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V17" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X17" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y17" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H18" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I18" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J18" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K18" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L18" t="n">
-        <v>105.1210682925375</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M18" t="n">
-        <v>106.5575300620078</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N18" t="n">
-        <v>1341.859282260497</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O18" t="n">
-        <v>1763.13256917311</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P18" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q18" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R18" t="n">
         <v>1765.290817548849</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.52177757606</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C19" t="n">
-        <v>842.9600660592845</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D19" t="n">
-        <v>677.0820732608072</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E19" t="n">
-        <v>507.3240695115445</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F19" t="n">
-        <v>330.6170154733007</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G19" t="n">
-        <v>330.6170154733007</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H19" t="n">
-        <v>190.757956939015</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I19" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J19" t="n">
         <v>189.1595596197742</v>
@@ -5700,25 +5700,25 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S19" t="n">
-        <v>2723.615324116631</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T19" t="n">
-        <v>2477.756597955219</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U19" t="n">
-        <v>2199.323861722284</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V19" t="n">
-        <v>1912.368353592714</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W19" t="n">
-        <v>1640.341949179006</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X19" t="n">
-        <v>1394.950194512418</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.340396295047</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="20">
@@ -5758,10 +5758,10 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L20" t="n">
-        <v>1375.768056541166</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M20" t="n">
-        <v>2534.676424637641</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N20" t="n">
         <v>2582.930975126826</v>
@@ -5782,7 +5782,7 @@
         <v>5028.786634663561</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495545</v>
       </c>
       <c r="U20" t="n">
         <v>4549.545294689024</v>
@@ -5791,13 +5791,13 @@
         <v>4186.92834462285</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X20" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.243843076496</v>
       </c>
       <c r="I21" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J21" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K21" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L21" t="n">
-        <v>105.1210682925375</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M21" t="n">
-        <v>1305.282364154508</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N21" t="n">
-        <v>1761.783707452347</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O21" t="n">
-        <v>1763.13256917311</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P21" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q21" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R21" t="n">
         <v>1765.290817548849</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.108203127648</v>
+        <v>795.3552749945038</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.546491610873</v>
+        <v>622.7935634777288</v>
       </c>
       <c r="D22" t="n">
-        <v>842.6684988123955</v>
+        <v>456.9155706792515</v>
       </c>
       <c r="E22" t="n">
-        <v>672.9104950631327</v>
+        <v>287.1575669299887</v>
       </c>
       <c r="F22" t="n">
-        <v>496.2034410248889</v>
+        <v>110.4505128917449</v>
       </c>
       <c r="G22" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H22" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I22" t="n">
         <v>102.243843076496</v>
@@ -5934,28 +5934,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R22" t="n">
-        <v>2723.615324116631</v>
+        <v>2702.415550495654</v>
       </c>
       <c r="S22" t="n">
-        <v>2723.615324116631</v>
+        <v>2543.258694003596</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.152895975328</v>
+        <v>2297.399967842184</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.720159742392</v>
+        <v>2018.967231609248</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.764651612823</v>
+        <v>1732.011723479679</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.738247199114</v>
+        <v>1459.98531906597</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.346492532527</v>
+        <v>1214.593564399383</v>
       </c>
       <c r="Y22" t="n">
-        <v>1372.926821846635</v>
+        <v>987.173893713491</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E23" t="n">
         <v>1220.517729944102</v>
@@ -5989,25 +5989,25 @@
         <v>102.243843076496</v>
       </c>
       <c r="J23" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K23" t="n">
-        <v>938.8412695764827</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L23" t="n">
-        <v>2015.573335341108</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M23" t="n">
-        <v>3174.481703437581</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N23" t="n">
-        <v>4302.103325127173</v>
+        <v>2752.085039879883</v>
       </c>
       <c r="O23" t="n">
-        <v>5108.858643332436</v>
+        <v>3734.049982540445</v>
       </c>
       <c r="P23" t="n">
-        <v>5110.382335171646</v>
+        <v>4563.883549213052</v>
       </c>
       <c r="Q23" t="n">
         <v>5111.526564287191</v>
@@ -6071,22 +6071,22 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K24" t="n">
-        <v>1099.730097307415</v>
+        <v>1135.24563547872</v>
       </c>
       <c r="L24" t="n">
-        <v>1100.961048318279</v>
+        <v>1136.476586489585</v>
       </c>
       <c r="M24" t="n">
-        <v>1102.397510087749</v>
+        <v>1137.913048259055</v>
       </c>
       <c r="N24" t="n">
-        <v>1103.871990725932</v>
+        <v>1139.387528897238</v>
       </c>
       <c r="O24" t="n">
-        <v>1105.220852446694</v>
+        <v>1140.736390618001</v>
       </c>
       <c r="P24" t="n">
-        <v>1106.303432895356</v>
+        <v>1141.818971066662</v>
       </c>
       <c r="Q24" t="n">
         <v>1647.766047887803</v>
@@ -6171,19 +6171,19 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R25" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S25" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T25" t="n">
-        <v>2297.399967842184</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U25" t="n">
-        <v>2018.967231609248</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V25" t="n">
-        <v>1732.011723479679</v>
+        <v>1977.905593078537</v>
       </c>
       <c r="W25" t="n">
         <v>1705.879188664828</v>
@@ -6226,25 +6226,25 @@
         <v>102.243843076496</v>
       </c>
       <c r="J26" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K26" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L26" t="n">
-        <v>1181.22304338293</v>
+        <v>1375.768056541166</v>
       </c>
       <c r="M26" t="n">
-        <v>2340.131411479404</v>
+        <v>1455.309353437234</v>
       </c>
       <c r="N26" t="n">
-        <v>3467.753033168996</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O26" t="n">
-        <v>4449.717975829558</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P26" t="n">
-        <v>4451.241667668769</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q26" t="n">
         <v>4942.372499534134</v>
@@ -6302,31 +6302,31 @@
         <v>102.243843076496</v>
       </c>
       <c r="I27" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J27" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K27" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L27" t="n">
-        <v>105.1210682925375</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M27" t="n">
-        <v>1305.282364154508</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N27" t="n">
-        <v>1761.783707452347</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O27" t="n">
-        <v>1763.13256917311</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P27" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q27" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R27" t="n">
         <v>1765.290817548849</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>954.5121314865619</v>
+        <v>975.7119051075392</v>
       </c>
       <c r="C28" t="n">
-        <v>781.9504199697868</v>
+        <v>803.1501935907642</v>
       </c>
       <c r="D28" t="n">
-        <v>616.0724271713095</v>
+        <v>637.2722007922869</v>
       </c>
       <c r="E28" t="n">
-        <v>446.3144234220468</v>
+        <v>467.5141970430241</v>
       </c>
       <c r="F28" t="n">
-        <v>269.607369383803</v>
+        <v>290.8071430047803</v>
       </c>
       <c r="G28" t="n">
-        <v>269.607369383803</v>
+        <v>125.2207174531922</v>
       </c>
       <c r="H28" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I28" t="n">
         <v>102.243843076496</v>
@@ -6408,28 +6408,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R28" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S28" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T28" t="n">
-        <v>2456.556824334242</v>
+        <v>2477.756597955219</v>
       </c>
       <c r="U28" t="n">
-        <v>2178.124088101306</v>
+        <v>2199.323861722284</v>
       </c>
       <c r="V28" t="n">
-        <v>1891.168579971737</v>
+        <v>1912.368353592714</v>
       </c>
       <c r="W28" t="n">
-        <v>1619.142175558028</v>
+        <v>1640.341949179006</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.750420891441</v>
+        <v>1394.950194512418</v>
       </c>
       <c r="Y28" t="n">
-        <v>1146.330750205549</v>
+        <v>1167.530523826526</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C29" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E29" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F29" t="n">
-        <v>792.6503003533099</v>
+        <v>792.6503003533103</v>
       </c>
       <c r="G29" t="n">
         <v>391.2632799323574</v>
@@ -6463,19 +6463,19 @@
         <v>102.243843076496</v>
       </c>
       <c r="J29" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K29" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L29" t="n">
-        <v>296.4009853407604</v>
+        <v>2402.311635347514</v>
       </c>
       <c r="M29" t="n">
-        <v>1455.309353437234</v>
+        <v>3561.220003443988</v>
       </c>
       <c r="N29" t="n">
-        <v>2582.930975126826</v>
+        <v>3563.110641697133</v>
       </c>
       <c r="O29" t="n">
         <v>3564.895917787388</v>
@@ -6539,31 +6539,31 @@
         <v>102.243843076496</v>
       </c>
       <c r="I30" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J30" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K30" t="n">
-        <v>103.8901172816732</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L30" t="n">
-        <v>105.1210682925375</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M30" t="n">
-        <v>526.4819552538578</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N30" t="n">
-        <v>1761.783707452347</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O30" t="n">
-        <v>1763.13256917311</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P30" t="n">
-        <v>1764.215149621772</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q30" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R30" t="n">
         <v>1765.290817548849</v>
@@ -6645,13 +6645,13 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R31" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S31" t="n">
-        <v>2543.258694003596</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="T31" t="n">
-        <v>2404.720159742392</v>
+        <v>2683.152895975328</v>
       </c>
       <c r="U31" t="n">
         <v>2404.720159742392</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.344732427939</v>
+        <v>2528.34473242794</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.202259611362</v>
+        <v>2090.202259611363</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785808</v>
       </c>
       <c r="E32" t="n">
-        <v>1220.517729944102</v>
+        <v>1220.517729944103</v>
       </c>
       <c r="F32" t="n">
-        <v>792.6503003533097</v>
+        <v>792.6503003533107</v>
       </c>
       <c r="G32" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323583</v>
       </c>
       <c r="H32" t="n">
         <v>102.243843076496</v>
@@ -6700,52 +6700,52 @@
         <v>102.243843076496</v>
       </c>
       <c r="J32" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K32" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L32" t="n">
-        <v>1181.22304338293</v>
+        <v>1453.448820551311</v>
       </c>
       <c r="M32" t="n">
-        <v>2340.131411479404</v>
+        <v>1455.309353437234</v>
       </c>
       <c r="N32" t="n">
-        <v>3467.753033168996</v>
+        <v>2582.930975126826</v>
       </c>
       <c r="O32" t="n">
-        <v>4280.548768499039</v>
+        <v>3564.895917787388</v>
       </c>
       <c r="P32" t="n">
-        <v>5110.382335171646</v>
+        <v>4394.729484459996</v>
       </c>
       <c r="Q32" t="n">
-        <v>5111.526564287191</v>
+        <v>4942.372499534134</v>
       </c>
       <c r="R32" t="n">
         <v>5112.192153824798</v>
       </c>
       <c r="S32" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.786634663562</v>
       </c>
       <c r="T32" t="n">
         <v>4808.766732495544</v>
       </c>
       <c r="U32" t="n">
-        <v>4549.545294689023</v>
+        <v>4549.545294689024</v>
       </c>
       <c r="V32" t="n">
-        <v>4186.928344622849</v>
+        <v>4186.92834462285</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.072890033883</v>
+        <v>3782.072890033884</v>
       </c>
       <c r="X32" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y32" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912848</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>102.243843076496</v>
       </c>
       <c r="I33" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J33" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K33" t="n">
-        <v>103.8901172816732</v>
+        <v>1135.24563547872</v>
       </c>
       <c r="L33" t="n">
-        <v>105.1210682925375</v>
+        <v>1136.476586489585</v>
       </c>
       <c r="M33" t="n">
-        <v>1305.282364154508</v>
+        <v>1137.913048259055</v>
       </c>
       <c r="N33" t="n">
-        <v>1644.610929358008</v>
+        <v>1139.387528897238</v>
       </c>
       <c r="O33" t="n">
-        <v>1645.95979107877</v>
+        <v>1140.736390618001</v>
       </c>
       <c r="P33" t="n">
-        <v>1647.042371527432</v>
+        <v>1141.818971066662</v>
       </c>
       <c r="Q33" t="n">
         <v>1647.766047887803</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.108203127648</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.546491610873</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D34" t="n">
-        <v>842.6684988123955</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E34" t="n">
-        <v>672.9104950631327</v>
+        <v>444.5373226663279</v>
       </c>
       <c r="F34" t="n">
-        <v>496.2034410248889</v>
+        <v>267.8302686280841</v>
       </c>
       <c r="G34" t="n">
-        <v>330.6170154733007</v>
+        <v>102.243843076496</v>
       </c>
       <c r="H34" t="n">
-        <v>190.757956939015</v>
+        <v>102.243843076496</v>
       </c>
       <c r="I34" t="n">
         <v>102.243843076496</v>
@@ -6885,25 +6885,25 @@
         <v>2723.615324116631</v>
       </c>
       <c r="S34" t="n">
-        <v>2683.152895975328</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.152895975328</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.720159742392</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.764651612823</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.738247199114</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.346492532527</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y34" t="n">
-        <v>1372.926821846635</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>2090.202259611362</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E35" t="n">
         <v>1220.517729944102</v>
       </c>
       <c r="F35" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G35" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H35" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I35" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J35" t="n">
         <v>538.3978373173468</v>
@@ -6943,46 +6943,46 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L35" t="n">
-        <v>2450.828022794025</v>
+        <v>1375.768056541166</v>
       </c>
       <c r="M35" t="n">
-        <v>2452.688555679948</v>
+        <v>1455.309353437233</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126824</v>
       </c>
       <c r="O35" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787387</v>
       </c>
       <c r="P35" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459994</v>
       </c>
       <c r="Q35" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534133</v>
       </c>
       <c r="R35" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824796</v>
       </c>
       <c r="S35" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.786634663559</v>
       </c>
       <c r="T35" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495542</v>
       </c>
       <c r="U35" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V35" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X35" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="36">
@@ -6998,10 +6998,10 @@
         <v>501.8974776840485</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8071888306018</v>
+        <v>406.8071888306017</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6867741575555</v>
+        <v>312.6867741575554</v>
       </c>
       <c r="F36" t="n">
         <v>229.3029357737171</v>
@@ -7010,7 +7010,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H36" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I36" t="n">
         <v>128.5027079435546</v>
@@ -7019,25 +7019,25 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K36" t="n">
-        <v>1135.24563547872</v>
+        <v>1099.730097307415</v>
       </c>
       <c r="L36" t="n">
-        <v>1136.476586489585</v>
+        <v>1100.961048318279</v>
       </c>
       <c r="M36" t="n">
-        <v>1137.913048259055</v>
+        <v>1102.397510087749</v>
       </c>
       <c r="N36" t="n">
-        <v>1139.387528897238</v>
+        <v>1103.871990725932</v>
       </c>
       <c r="O36" t="n">
-        <v>1140.736390618001</v>
+        <v>1105.220852446694</v>
       </c>
       <c r="P36" t="n">
-        <v>1141.818971066662</v>
+        <v>1106.303432895356</v>
       </c>
       <c r="Q36" t="n">
-        <v>1683.281586059109</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R36" t="n">
         <v>1765.290817548849</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>954.5121314865619</v>
+        <v>1094.987784848421</v>
       </c>
       <c r="C37" t="n">
-        <v>781.9504199697868</v>
+        <v>922.4260733316461</v>
       </c>
       <c r="D37" t="n">
-        <v>616.0724271713095</v>
+        <v>756.5480805331688</v>
       </c>
       <c r="E37" t="n">
-        <v>446.3144234220468</v>
+        <v>586.790076783906</v>
       </c>
       <c r="F37" t="n">
-        <v>446.3144234220468</v>
+        <v>410.0830227456622</v>
       </c>
       <c r="G37" t="n">
-        <v>280.7279978704587</v>
+        <v>330.6170154733007</v>
       </c>
       <c r="H37" t="n">
-        <v>140.868939336173</v>
+        <v>190.7579569390149</v>
       </c>
       <c r="I37" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J37" t="n">
-        <v>189.1595596197742</v>
+        <v>189.1595596197741</v>
       </c>
       <c r="K37" t="n">
         <v>464.4702169706911</v>
@@ -7119,28 +7119,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R37" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S37" t="n">
-        <v>2702.415550495654</v>
+        <v>2564.458467624578</v>
       </c>
       <c r="T37" t="n">
-        <v>2456.556824334242</v>
+        <v>2318.599741463166</v>
       </c>
       <c r="U37" t="n">
-        <v>2178.124088101306</v>
+        <v>2318.599741463166</v>
       </c>
       <c r="V37" t="n">
-        <v>1891.168579971737</v>
+        <v>2031.644233333596</v>
       </c>
       <c r="W37" t="n">
-        <v>1619.142175558028</v>
+        <v>1759.617828919888</v>
       </c>
       <c r="X37" t="n">
-        <v>1373.750420891441</v>
+        <v>1514.2260742533</v>
       </c>
       <c r="Y37" t="n">
-        <v>1146.330750205549</v>
+        <v>1286.806403567408</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C38" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E38" t="n">
         <v>1220.517729944102</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6503003533098</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G38" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H38" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I38" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J38" t="n">
         <v>538.3978373173468</v>
@@ -7180,46 +7180,46 @@
         <v>1374.095957029401</v>
       </c>
       <c r="L38" t="n">
-        <v>1422.131968777207</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M38" t="n">
-        <v>2581.040336873682</v>
+        <v>2581.04033687368</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126824</v>
       </c>
       <c r="O38" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787387</v>
       </c>
       <c r="P38" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459994</v>
       </c>
       <c r="Q38" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534133</v>
       </c>
       <c r="R38" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824796</v>
       </c>
       <c r="S38" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.786634663559</v>
       </c>
       <c r="T38" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495542</v>
       </c>
       <c r="U38" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689023</v>
       </c>
       <c r="V38" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622849</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033883</v>
       </c>
       <c r="X38" t="n">
         <v>3362.930426613194</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.644302912847</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>501.8974776840485</v>
       </c>
       <c r="D39" t="n">
-        <v>406.8071888306018</v>
+        <v>406.8071888306017</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6867741575555</v>
+        <v>312.6867741575554</v>
       </c>
       <c r="F39" t="n">
         <v>229.3029357737171</v>
@@ -7247,34 +7247,34 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H39" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I39" t="n">
-        <v>102.439034783097</v>
+        <v>128.5027079435546</v>
       </c>
       <c r="J39" t="n">
-        <v>102.9746557451216</v>
+        <v>453.5966538717915</v>
       </c>
       <c r="K39" t="n">
-        <v>784.6236373520505</v>
+        <v>820.7458694602918</v>
       </c>
       <c r="L39" t="n">
-        <v>1740.397637174019</v>
+        <v>821.9768204711561</v>
       </c>
       <c r="M39" t="n">
-        <v>1741.834098943489</v>
+        <v>823.4132822406264</v>
       </c>
       <c r="N39" t="n">
-        <v>1743.308579581672</v>
+        <v>824.8877628788091</v>
       </c>
       <c r="O39" t="n">
-        <v>1744.657441302434</v>
+        <v>826.2366245995718</v>
       </c>
       <c r="P39" t="n">
-        <v>1764.215149621772</v>
+        <v>1647.042371527432</v>
       </c>
       <c r="Q39" t="n">
-        <v>1764.938825982143</v>
+        <v>1647.766047887803</v>
       </c>
       <c r="R39" t="n">
         <v>1765.290817548849</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.594089265129</v>
+        <v>816.5550486154812</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0323777483537</v>
+        <v>643.9933370987061</v>
       </c>
       <c r="D40" t="n">
-        <v>754.1543849498764</v>
+        <v>577.4473309116324</v>
       </c>
       <c r="E40" t="n">
-        <v>584.3963812006136</v>
+        <v>407.6893271623698</v>
       </c>
       <c r="F40" t="n">
-        <v>407.6893271623699</v>
+        <v>407.6893271623698</v>
       </c>
       <c r="G40" t="n">
         <v>242.1029016107817</v>
       </c>
       <c r="H40" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I40" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J40" t="n">
-        <v>189.1595596197742</v>
+        <v>189.1595596197741</v>
       </c>
       <c r="K40" t="n">
         <v>464.4702169706911</v>
@@ -7356,28 +7356,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R40" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S40" t="n">
-        <v>2543.258694003596</v>
+        <v>2564.458467624573</v>
       </c>
       <c r="T40" t="n">
-        <v>2543.258694003596</v>
+        <v>2318.599741463161</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.82595777066</v>
+        <v>2040.167005230226</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.870449641091</v>
+        <v>1753.211497100656</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.224133336595</v>
+        <v>1481.185092686948</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.832378670008</v>
+        <v>1235.79333802036</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.412707984116</v>
+        <v>1008.373667334468</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427939</v>
       </c>
       <c r="C41" t="n">
         <v>2090.202259611362</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.292474785807</v>
+        <v>1654.292474785806</v>
       </c>
       <c r="E41" t="n">
         <v>1220.517729944102</v>
       </c>
       <c r="F41" t="n">
-        <v>792.6503003533097</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G41" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H41" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I41" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J41" t="n">
-        <v>375.3689270328102</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K41" t="n">
-        <v>376.7167547866861</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L41" t="n">
-        <v>1453.448820551311</v>
+        <v>1453.448820551309</v>
       </c>
       <c r="M41" t="n">
-        <v>1455.309353437234</v>
+        <v>1455.309353437233</v>
       </c>
       <c r="N41" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126824</v>
       </c>
       <c r="O41" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787387</v>
       </c>
       <c r="P41" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459994</v>
       </c>
       <c r="Q41" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534133</v>
       </c>
       <c r="R41" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824796</v>
       </c>
       <c r="S41" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.786634663559</v>
       </c>
       <c r="T41" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495542</v>
       </c>
       <c r="U41" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V41" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X41" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>501.8974776840485</v>
       </c>
       <c r="D42" t="n">
-        <v>406.8071888306018</v>
+        <v>406.8071888306017</v>
       </c>
       <c r="E42" t="n">
-        <v>312.6867741575555</v>
+        <v>312.6867741575554</v>
       </c>
       <c r="F42" t="n">
         <v>229.3029357737171</v>
@@ -7484,7 +7484,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H42" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I42" t="n">
         <v>128.5027079435546</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>987.173893713491</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C43" t="n">
-        <v>814.6121821967159</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D43" t="n">
-        <v>648.7341893982386</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E43" t="n">
-        <v>478.9761856489759</v>
+        <v>444.5373226663278</v>
       </c>
       <c r="F43" t="n">
-        <v>302.2691316107321</v>
+        <v>267.830268628084</v>
       </c>
       <c r="G43" t="n">
-        <v>302.2691316107321</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H43" t="n">
-        <v>162.4100730764463</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I43" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J43" t="n">
-        <v>189.1595596197742</v>
+        <v>189.1595596197741</v>
       </c>
       <c r="K43" t="n">
         <v>464.4702169706911</v>
@@ -7593,28 +7593,28 @@
         <v>2723.615324116631</v>
       </c>
       <c r="R43" t="n">
-        <v>2702.415550495654</v>
+        <v>2723.615324116631</v>
       </c>
       <c r="S43" t="n">
-        <v>2543.258694003596</v>
+        <v>2700.638449739935</v>
       </c>
       <c r="T43" t="n">
-        <v>2297.399967842184</v>
+        <v>2454.779723578523</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.967231609248</v>
+        <v>2176.346987345587</v>
       </c>
       <c r="V43" t="n">
-        <v>1732.011723479679</v>
+        <v>1889.391479216018</v>
       </c>
       <c r="W43" t="n">
-        <v>1459.98531906597</v>
+        <v>1617.365074802309</v>
       </c>
       <c r="X43" t="n">
-        <v>1214.593564399383</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y43" t="n">
-        <v>987.173893713491</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.34473242794</v>
+        <v>2528.344732427938</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.202259611363</v>
+        <v>2090.202259611362</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.292474785808</v>
+        <v>1654.292474785807</v>
       </c>
       <c r="E44" t="n">
-        <v>1220.517729944103</v>
+        <v>1220.517729944102</v>
       </c>
       <c r="F44" t="n">
-        <v>792.6503003533107</v>
+        <v>792.6503003533096</v>
       </c>
       <c r="G44" t="n">
-        <v>391.2632799323575</v>
+        <v>391.2632799323574</v>
       </c>
       <c r="H44" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I44" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J44" t="n">
-        <v>103.1431498644289</v>
+        <v>538.3978373173468</v>
       </c>
       <c r="K44" t="n">
-        <v>104.4909776183048</v>
+        <v>1374.095957029401</v>
       </c>
       <c r="L44" t="n">
-        <v>296.4009853407604</v>
+        <v>2450.828022794025</v>
       </c>
       <c r="M44" t="n">
-        <v>1455.309353437234</v>
+        <v>2452.688555679948</v>
       </c>
       <c r="N44" t="n">
-        <v>2582.930975126826</v>
+        <v>2582.930975126824</v>
       </c>
       <c r="O44" t="n">
-        <v>3564.895917787388</v>
+        <v>3564.895917787387</v>
       </c>
       <c r="P44" t="n">
-        <v>4394.729484459996</v>
+        <v>4394.729484459994</v>
       </c>
       <c r="Q44" t="n">
-        <v>4942.372499534134</v>
+        <v>4942.372499534133</v>
       </c>
       <c r="R44" t="n">
-        <v>5112.192153824798</v>
+        <v>5112.192153824796</v>
       </c>
       <c r="S44" t="n">
-        <v>5028.786634663561</v>
+        <v>5028.786634663559</v>
       </c>
       <c r="T44" t="n">
-        <v>4808.766732495544</v>
+        <v>4808.766732495542</v>
       </c>
       <c r="U44" t="n">
-        <v>4549.545294689024</v>
+        <v>4549.545294689022</v>
       </c>
       <c r="V44" t="n">
-        <v>4186.92834462285</v>
+        <v>4186.928344622848</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.072890033884</v>
+        <v>3782.072890033882</v>
       </c>
       <c r="X44" t="n">
-        <v>3362.930426613194</v>
+        <v>3362.930426613193</v>
       </c>
       <c r="Y44" t="n">
-        <v>2954.644302912848</v>
+        <v>2954.644302912846</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>501.8974776840485</v>
       </c>
       <c r="D45" t="n">
-        <v>406.8071888306018</v>
+        <v>406.8071888306017</v>
       </c>
       <c r="E45" t="n">
-        <v>312.6867741575555</v>
+        <v>312.6867741575554</v>
       </c>
       <c r="F45" t="n">
         <v>229.3029357737171</v>
@@ -7721,7 +7721,7 @@
         <v>143.9236304111961</v>
       </c>
       <c r="H45" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I45" t="n">
         <v>128.5027079435546</v>
@@ -7730,22 +7730,22 @@
         <v>453.5966538717915</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.730097307415</v>
+        <v>1135.24563547872</v>
       </c>
       <c r="L45" t="n">
-        <v>1100.961048318279</v>
+        <v>1136.476586489585</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.397510087749</v>
+        <v>1137.913048259055</v>
       </c>
       <c r="N45" t="n">
-        <v>1103.871990725932</v>
+        <v>1139.387528897238</v>
       </c>
       <c r="O45" t="n">
-        <v>1105.220852446694</v>
+        <v>1140.736390618001</v>
       </c>
       <c r="P45" t="n">
-        <v>1106.303432895356</v>
+        <v>1141.818971066662</v>
       </c>
       <c r="Q45" t="n">
         <v>1647.766047887803</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>816.5550486154812</v>
+        <v>952.7350307308429</v>
       </c>
       <c r="C46" t="n">
-        <v>643.9933370987061</v>
+        <v>780.1733192140679</v>
       </c>
       <c r="D46" t="n">
-        <v>478.1153443002288</v>
+        <v>614.2953264155906</v>
       </c>
       <c r="E46" t="n">
-        <v>478.1153443002288</v>
+        <v>444.5373226663278</v>
       </c>
       <c r="F46" t="n">
-        <v>478.1153443002288</v>
+        <v>267.830268628084</v>
       </c>
       <c r="G46" t="n">
-        <v>312.5289187486406</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="H46" t="n">
-        <v>172.6698602143549</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="I46" t="n">
-        <v>102.243843076496</v>
+        <v>102.2438430764959</v>
       </c>
       <c r="J46" t="n">
-        <v>189.1595596197742</v>
+        <v>189.1595596197741</v>
       </c>
       <c r="K46" t="n">
         <v>464.4702169706911</v>
@@ -7848,10 +7848,10 @@
         <v>1481.185092686948</v>
       </c>
       <c r="X46" t="n">
-        <v>1235.79333802036</v>
+        <v>1371.973320135722</v>
       </c>
       <c r="Y46" t="n">
-        <v>1008.373667334468</v>
+        <v>1144.55364944983</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>598.670840730873</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>450.2712932386285</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.62009379123396</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>598.6708407308716</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308715</v>
+        <v>598.6708407308729</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>598.6708407308716</v>
+        <v>598.670840730873</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>62.64839828500953</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>62.64839828501079</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>92.39214696771985</v>
+        <v>4.937919528644528</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8458,19 +8458,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>274.9755324933144</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>177.8957712591343</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>651.7353352515871</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>78.4654181920655</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>678.0622778379079</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320526</v>
       </c>
       <c r="O17" t="n">
-        <v>813.101052641422</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.1660860523737</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>46.83223458185967</v>
+        <v>129.6482638320535</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>459.623093595613</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,19 +9646,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>300.5109555018075</v>
       </c>
       <c r="O23" t="n">
-        <v>813.101052641422</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>651.7353352515872</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>78.4654181920655</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9892,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>494.9359623735572</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>459.623093595613</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>192.1595032431212</v>
+        <v>1036.912705864998</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>424.1660860523737</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>78.4654181920655</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>819.2024840805939</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>341.2667520861789</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>78.46541819206368</v>
       </c>
       <c r="N35" t="n">
-        <v>129.6482638320535</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>651.7353352515872</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>82.48206052831688</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,10 +10828,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>46.83223458185967</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>129.6482638320517</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>369.9330849009583</v>
       </c>
       <c r="L39" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>18.6617453239146</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>274.9755324933145</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>78.46541819206368</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>192.1595032431212</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>129.6482638320517</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>651.7353352515872</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>510.3266671320905</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.2469899812064</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>224.3301109246751</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.12874315413293</v>
+        <v>64.88186709096458</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>157.5652879271376</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>39.41177374383506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>155.8059581789758</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.98777588476758</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>203.3423350399076</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>222.447155018102</v>
       </c>
       <c r="W25" t="n">
-        <v>243.4349309028696</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>60.39954962860278</v>
+        <v>115.7133623160136</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S28" t="n">
         <v>157.5652879271376</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T31" t="n">
-        <v>106.2469899812066</v>
+        <v>203.3423350399076</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6484088706061</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S34" t="n">
-        <v>117.5074840672472</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T34" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>85.25921409643431</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3901274268136</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S37" t="n">
-        <v>157.5652879271376</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>98.33866674528961</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.400138899798</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>50.86628722812085</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9305612960722</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06440502394296</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.8181822942083</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I46" t="n">
-        <v>17.90721575741347</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>134.8181822942082</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>532492.2944712988</v>
+        <v>532492.2944712989</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568319.7618211918</v>
+        <v>568319.7618211916</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>568319.7618211918</v>
+        <v>568319.7618211916</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568319.7618211918</v>
+        <v>568319.7618211916</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
-        <v>469128.9049041076</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="D2" t="n">
         <v>469128.9049041075</v>
@@ -26325,16 +26325,16 @@
         <v>461109.1015282194</v>
       </c>
       <c r="F2" t="n">
-        <v>461109.1015282194</v>
+        <v>461109.1015282195</v>
       </c>
       <c r="G2" t="n">
         <v>461109.1015282192</v>
       </c>
       <c r="H2" t="n">
-        <v>461109.1015282193</v>
+        <v>461109.1015282192</v>
       </c>
       <c r="I2" t="n">
-        <v>461109.1015282193</v>
+        <v>461109.1015282192</v>
       </c>
       <c r="J2" t="n">
         <v>461109.1015282192</v>
@@ -26343,16 +26343,16 @@
         <v>461109.1015282193</v>
       </c>
       <c r="L2" t="n">
-        <v>461109.1015282193</v>
+        <v>461109.1015282192</v>
       </c>
       <c r="M2" t="n">
         <v>461109.1015282193</v>
       </c>
       <c r="N2" t="n">
-        <v>461109.1015282194</v>
+        <v>461109.1015282193</v>
       </c>
       <c r="O2" t="n">
-        <v>461109.1015282193</v>
+        <v>461109.1015282192</v>
       </c>
       <c r="P2" t="n">
         <v>461109.1015282192</v>
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>56335.44544714109</v>
+        <v>56335.44544714152</v>
       </c>
       <c r="D3" t="n">
-        <v>21385.12537236794</v>
+        <v>21385.12537236752</v>
       </c>
       <c r="E3" t="n">
-        <v>184430.5981858014</v>
+        <v>184430.5981858013</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>44878.54067898877</v>
+        <v>44878.54067898911</v>
       </c>
       <c r="L3" t="n">
-        <v>17423.88940417208</v>
+        <v>17423.88940417174</v>
       </c>
       <c r="M3" t="n">
-        <v>152147.2238279344</v>
+        <v>152147.2238279342</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>192623.6608176006</v>
+        <v>192623.6608176004</v>
       </c>
       <c r="D4" t="n">
         <v>182515.9822733277</v>
@@ -26450,10 +26450,10 @@
         <v>108017.0511911513</v>
       </c>
       <c r="M4" t="n">
-        <v>108017.0511911513</v>
+        <v>108017.0511911514</v>
       </c>
       <c r="N4" t="n">
-        <v>108017.0511911513</v>
+        <v>108017.0511911514</v>
       </c>
       <c r="O4" t="n">
         <v>108017.0511911513</v>
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>70026.78711643699</v>
+        <v>70026.78711643707</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="F5" t="n">
         <v>77763.35959750946</v>
       </c>
       <c r="G5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750945</v>
       </c>
       <c r="H5" t="n">
         <v>77763.35959750946</v>
@@ -26502,16 +26502,16 @@
         <v>77763.35959750946</v>
       </c>
       <c r="M5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750944</v>
       </c>
       <c r="N5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750944</v>
       </c>
       <c r="O5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750944</v>
       </c>
       <c r="P5" t="n">
-        <v>77763.35959750946</v>
+        <v>77763.35959750944</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49287.55007460627</v>
+        <v>49287.55007460615</v>
       </c>
       <c r="C6" t="n">
-        <v>150143.011522929</v>
+        <v>150143.0115229284</v>
       </c>
       <c r="D6" t="n">
-        <v>191015.2726966542</v>
+        <v>191015.2726966546</v>
       </c>
       <c r="E6" t="n">
-        <v>90898.09255375725</v>
+        <v>90875.17882982627</v>
       </c>
       <c r="F6" t="n">
-        <v>275328.6907395587</v>
+        <v>275305.7770156275</v>
       </c>
       <c r="G6" t="n">
-        <v>275328.6907395584</v>
+        <v>275305.7770156274</v>
       </c>
       <c r="H6" t="n">
-        <v>275328.6907395585</v>
+        <v>275305.7770156273</v>
       </c>
       <c r="I6" t="n">
-        <v>275328.6907395585</v>
+        <v>275305.7770156273</v>
       </c>
       <c r="J6" t="n">
-        <v>164314.2253945683</v>
+        <v>164291.3116706372</v>
       </c>
       <c r="K6" t="n">
-        <v>230450.1500605698</v>
+        <v>230427.2363366383</v>
       </c>
       <c r="L6" t="n">
-        <v>257904.8013353865</v>
+        <v>257881.8876114556</v>
       </c>
       <c r="M6" t="n">
-        <v>123181.4669116242</v>
+        <v>123158.5531876931</v>
       </c>
       <c r="N6" t="n">
-        <v>275328.6907395587</v>
+        <v>275305.7770156274</v>
       </c>
       <c r="O6" t="n">
-        <v>275328.6907395585</v>
+        <v>275305.7770156273</v>
       </c>
       <c r="P6" t="n">
-        <v>275328.6907395584</v>
+        <v>275305.7770156274</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="J3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="K3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="L3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="M3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="N3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="O3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="P3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>598.6708407308716</v>
+        <v>598.670840730873</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>174.3749832107673</v>
+        <v>174.3749832107687</v>
       </c>
       <c r="D4" t="n">
-        <v>68.84436587698528</v>
+        <v>68.84436587698394</v>
       </c>
       <c r="E4" t="n">
-        <v>610.5328318483425</v>
+        <v>610.5328318483423</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107673</v>
+        <v>174.3749832107687</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698528</v>
+        <v>68.84436587698394</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483425</v>
+        <v>610.5328318483419</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>174.3749832107673</v>
+        <v>174.3749832107687</v>
       </c>
       <c r="L4" t="n">
-        <v>68.84436587698528</v>
+        <v>68.84436587698394</v>
       </c>
       <c r="M4" t="n">
-        <v>610.5328318483425</v>
+        <v>610.5328318483423</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.254829457195569</v>
+      </c>
+      <c r="E2" t="n">
+        <v>138.8140155808343</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F2" t="n">
-        <v>266.3113711586176</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27596,13 +27596,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>72.73581436038876</v>
+        <v>180.8896754302948</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>341.5314944645111</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>239.9677097641828</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>50.19128230166092</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>147.3077687053459</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>157.1756344471133</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>147.1122069234081</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.0118993322381</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="11">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30194,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>4.532087617725343e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>9.648064949407792e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30711,10 +30711,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.440674018558035e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31761,7 +31761,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K11" t="n">
         <v>1.361442175632203</v>
@@ -31770,7 +31770,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M11" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N11" t="n">
         <v>1.909735609237095</v>
@@ -31785,16 +31785,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H12" t="n">
         <v>0.05530620059647288</v>
@@ -31843,7 +31843,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L12" t="n">
         <v>1.243384859458851</v>
@@ -31861,19 +31861,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R12" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T12" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J13" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R13" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S13" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T13" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K14" t="n">
         <v>1.361442175632203</v>
@@ -32007,7 +32007,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M14" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N14" t="n">
         <v>1.909735609237095</v>
@@ -32022,16 +32022,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S14" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T14" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H15" t="n">
         <v>0.05530620059647288</v>
@@ -32080,7 +32080,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L15" t="n">
         <v>1.243384859458851</v>
@@ -32098,19 +32098,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R15" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T15" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J16" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K16" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N16" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R16" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T16" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
@@ -32244,7 +32244,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
         <v>1.909735609237095</v>
@@ -32259,16 +32259,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H18" t="n">
         <v>0.05530620059647288</v>
@@ -32317,7 +32317,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -32335,19 +32335,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R18" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T19" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K20" t="n">
         <v>1.361442175632203</v>
@@ -32481,7 +32481,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
         <v>1.909735609237095</v>
@@ -32496,16 +32496,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H21" t="n">
         <v>0.05530620059647288</v>
@@ -32554,7 +32554,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458851</v>
@@ -32572,19 +32572,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R21" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T21" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J22" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R22" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T22" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32709,7 +32709,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K23" t="n">
         <v>1.361442175632203</v>
@@ -32718,7 +32718,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M23" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N23" t="n">
         <v>1.909735609237095</v>
@@ -32733,16 +32733,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T23" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H24" t="n">
         <v>0.05530620059647288</v>
@@ -32791,7 +32791,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458851</v>
@@ -32809,19 +32809,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R24" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S24" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T24" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J25" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P25" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R25" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S25" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T25" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K26" t="n">
         <v>1.361442175632203</v>
@@ -32955,7 +32955,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M26" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N26" t="n">
         <v>1.909735609237095</v>
@@ -32970,16 +32970,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R26" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S26" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T26" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H27" t="n">
         <v>0.05530620059647288</v>
@@ -33028,7 +33028,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L27" t="n">
         <v>1.243384859458851</v>
@@ -33046,19 +33046,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R27" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S27" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T27" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H28" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J28" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K28" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N28" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O28" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R28" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S28" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T28" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K29" t="n">
         <v>1.361442175632203</v>
@@ -33192,7 +33192,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M29" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N29" t="n">
         <v>1.909735609237095</v>
@@ -33207,16 +33207,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R29" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T29" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H30" t="n">
         <v>0.05530620059647288</v>
@@ -33265,7 +33265,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L30" t="n">
         <v>1.243384859458851</v>
@@ -33283,19 +33283,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R30" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S30" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T30" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J31" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L31" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N31" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P31" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R31" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S31" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T31" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K32" t="n">
         <v>1.361442175632203</v>
@@ -33429,7 +33429,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M32" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N32" t="n">
         <v>1.909735609237095</v>
@@ -33444,16 +33444,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H33" t="n">
         <v>0.05530620059647288</v>
@@ -33502,7 +33502,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L33" t="n">
         <v>1.243384859458851</v>
@@ -33520,19 +33520,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R33" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S33" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T33" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J34" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L34" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N34" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P34" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R34" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T34" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K35" t="n">
         <v>1.361442175632203</v>
@@ -33666,7 +33666,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N35" t="n">
         <v>1.909735609237095</v>
@@ -33681,16 +33681,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S35" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T35" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H36" t="n">
         <v>0.05530620059647288</v>
@@ -33739,7 +33739,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458851</v>
@@ -33757,19 +33757,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R36" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S36" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T36" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H37" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J37" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K37" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L37" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R37" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T37" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K38" t="n">
         <v>1.361442175632203</v>
@@ -33903,7 +33903,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M38" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N38" t="n">
         <v>1.909735609237095</v>
@@ -33918,16 +33918,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S38" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T38" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H39" t="n">
         <v>0.05530620059647288</v>
@@ -33976,7 +33976,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K39" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L39" t="n">
         <v>1.243384859458851</v>
@@ -33994,19 +33994,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R39" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T39" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J40" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K40" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L40" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N40" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O40" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R40" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S40" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T40" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,7 +34131,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K41" t="n">
         <v>1.361442175632203</v>
@@ -34140,7 +34140,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M41" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N41" t="n">
         <v>1.909735609237095</v>
@@ -34155,16 +34155,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R41" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S41" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T41" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H42" t="n">
         <v>0.05530620059647288</v>
@@ -34213,7 +34213,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L42" t="n">
         <v>1.243384859458851</v>
@@ -34231,19 +34231,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R42" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S42" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T42" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J43" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L43" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N43" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O43" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P43" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R43" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S43" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T43" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K44" t="n">
         <v>1.361442175632203</v>
@@ -34377,7 +34377,7 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M44" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N44" t="n">
         <v>1.909735609237095</v>
@@ -34392,16 +34392,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R44" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497282</v>
       </c>
       <c r="S44" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T44" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471609</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873294</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.005726527582196101</v>
       </c>
       <c r="H45" t="n">
         <v>0.05530620059647288</v>
@@ -34450,7 +34450,7 @@
         <v>0.5410312747723081</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L45" t="n">
         <v>1.243384859458851</v>
@@ -34468,19 +34468,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975234</v>
       </c>
       <c r="R45" t="n">
         <v>0.3555470370770528</v>
       </c>
       <c r="S45" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T45" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H46" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636078</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J46" t="n">
         <v>0.3394256349377582</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783418</v>
       </c>
       <c r="N46" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.734672973242547</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559684</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449317</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R46" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S46" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.083667087845658</v>
       </c>
       <c r="T46" t="n">
         <v>0.02051305753127766</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>598.670840730873</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>450.2712932386285</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.62009379123396</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>598.6708407308716</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>598.6708407308715</v>
+        <v>598.6708407308729</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>598.6708407308716</v>
+        <v>598.670840730873</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>62.64839828500953</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>62.64839828501079</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>92.39214696771985</v>
+        <v>4.937919528644528</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35178,19 +35178,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35251,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K11" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L11" t="n">
         <v>1087.608147236995</v>
       </c>
       <c r="M11" t="n">
-        <v>276.8548586407117</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N11" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O11" t="n">
         <v>991.8837804652144</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J12" t="n">
-        <v>178.4368025339066</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K12" t="n">
         <v>0.9247086227794625</v>
@@ -35506,7 +35506,7 @@
         <v>1.362486586628904</v>
       </c>
       <c r="P12" t="n">
-        <v>829.0967140685456</v>
+        <v>652.8288508562962</v>
       </c>
       <c r="Q12" t="n">
         <v>546.9319343358052</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K13" t="n">
         <v>278.0915730817343</v>
@@ -35652,13 +35652,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L14" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M14" t="n">
-        <v>80.34474433946275</v>
+        <v>302.3902816492046</v>
       </c>
       <c r="N14" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O14" t="n">
         <v>991.8837804652144</v>
@@ -35670,7 +35670,7 @@
         <v>553.17476270115</v>
       </c>
       <c r="R14" t="n">
-        <v>171.535004334004</v>
+        <v>0.6723126642500574</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J15" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9247086227794625</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L15" t="n">
-        <v>1.243384859458843</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M15" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N15" t="n">
-        <v>1.489374382002836</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O15" t="n">
-        <v>679.4247644245369</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P15" t="n">
         <v>1.093515604708955</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K17" t="n">
         <v>844.1395148606605</v>
@@ -35892,22 +35892,22 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M17" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N17" t="n">
-        <v>1139.011739080395</v>
+        <v>131.5579994412897</v>
       </c>
       <c r="O17" t="n">
-        <v>814.9043618234982</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L18" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M18" t="n">
-        <v>1.450971484313456</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N18" t="n">
-        <v>1247.779547675242</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O18" t="n">
-        <v>425.5285726390025</v>
+        <v>1.362486586628847</v>
       </c>
       <c r="P18" t="n">
         <v>1.093515604708955</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K19" t="n">
         <v>278.0915730817343</v>
@@ -36126,13 +36126,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L20" t="n">
-        <v>1.688989405824032</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M20" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N20" t="n">
-        <v>48.7419701910967</v>
+        <v>131.5579994412906</v>
       </c>
       <c r="O20" t="n">
         <v>991.8837804652144</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L21" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.284137234313</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N21" t="n">
-        <v>461.1124679776158</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O21" t="n">
         <v>1.362486586628847</v>
@@ -36220,10 +36220,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K23" t="n">
         <v>844.1395148606605</v>
@@ -36366,19 +36366,19 @@
         <v>1087.608147236995</v>
       </c>
       <c r="M23" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N23" t="n">
-        <v>1139.011739080395</v>
+        <v>302.4206911110446</v>
       </c>
       <c r="O23" t="n">
-        <v>814.9043618234982</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P23" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R23" t="n">
         <v>0.6723126642500574</v>
@@ -36439,7 +36439,7 @@
         <v>328.3777231598353</v>
       </c>
       <c r="K24" t="n">
-        <v>652.6600438743667</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L24" t="n">
         <v>1.243384859458956</v>
@@ -36457,7 +36457,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.9319343358052</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R24" t="n">
         <v>118.7118885465111</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K26" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L26" t="n">
-        <v>1087.608147236995</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M26" t="n">
-        <v>1170.614513228762</v>
+        <v>80.34474433946275</v>
       </c>
       <c r="N26" t="n">
         <v>1139.011739080396</v>
@@ -36612,10 +36612,10 @@
         <v>991.8837804652144</v>
       </c>
       <c r="P26" t="n">
-        <v>1.5390826658695</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.091749358955</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R26" t="n">
         <v>171.535004334004</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L27" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.284137234313</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N27" t="n">
-        <v>461.1124679776158</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O27" t="n">
         <v>1.362486586628847</v>
@@ -36694,10 +36694,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R27" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K29" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L29" t="n">
-        <v>193.8484926489451</v>
+        <v>1038.601695270822</v>
       </c>
       <c r="M29" t="n">
         <v>1170.614513228762</v>
       </c>
       <c r="N29" t="n">
-        <v>1139.011739080396</v>
+        <v>1.909735609237032</v>
       </c>
       <c r="O29" t="n">
-        <v>991.8837804652144</v>
+        <v>1.803309182076191</v>
       </c>
       <c r="P29" t="n">
         <v>838.2157239117246</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J30" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9247086227794483</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L30" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M30" t="n">
-        <v>425.6170575366871</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N30" t="n">
-        <v>1247.779547675242</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O30" t="n">
         <v>1.362486586628847</v>
@@ -36931,10 +36931,10 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7309862225974939</v>
+        <v>546.9319343358052</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K32" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L32" t="n">
-        <v>1087.608147236995</v>
+        <v>80.15440759788953</v>
       </c>
       <c r="M32" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397251</v>
       </c>
       <c r="N32" t="n">
         <v>1139.011739080396</v>
       </c>
       <c r="O32" t="n">
-        <v>821.0057932626701</v>
+        <v>991.8837804652144</v>
       </c>
       <c r="P32" t="n">
-        <v>838.215723911725</v>
+        <v>838.2157239117246</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.155786985397754</v>
+        <v>553.17476270115</v>
       </c>
       <c r="R32" t="n">
-        <v>0.6723126642500574</v>
+        <v>171.535004334004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632185</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9247086227794483</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L33" t="n">
-        <v>1.243384859458857</v>
+        <v>1.243384859458956</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.284137234313</v>
+        <v>1.450971484313413</v>
       </c>
       <c r="N33" t="n">
-        <v>342.7561264681817</v>
+        <v>1.489374382002779</v>
       </c>
       <c r="O33" t="n">
         <v>1.362486586628847</v>
@@ -37168,7 +37168,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.7309862225974939</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R33" t="n">
         <v>118.7118885465111</v>
@@ -37311,13 +37311,13 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L35" t="n">
-        <v>1087.608147236995</v>
+        <v>1.688989405824032</v>
       </c>
       <c r="M35" t="n">
-        <v>1.879326147397023</v>
+        <v>80.34474433946093</v>
       </c>
       <c r="N35" t="n">
-        <v>131.5579994412906</v>
+        <v>1139.011739080396</v>
       </c>
       <c r="O35" t="n">
         <v>991.8837804652144</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J36" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K36" t="n">
-        <v>688.5343248554839</v>
+        <v>652.6600438743667</v>
       </c>
       <c r="L36" t="n">
         <v>1.243384859458956</v>
@@ -37408,7 +37408,7 @@
         <v>546.9319343358052</v>
       </c>
       <c r="R36" t="n">
-        <v>82.83760756539391</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K37" t="n">
         <v>278.0915730817343</v>
@@ -37548,10 +37548,10 @@
         <v>844.1395148606605</v>
       </c>
       <c r="L38" t="n">
-        <v>48.5212239876837</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M38" t="n">
-        <v>1170.614513228762</v>
+        <v>131.5275899794487</v>
       </c>
       <c r="N38" t="n">
         <v>1.909735609237032</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1971633400010546</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5410312747723083</v>
+        <v>328.3777231598353</v>
       </c>
       <c r="K39" t="n">
-        <v>688.5343248554839</v>
+        <v>370.8577935237378</v>
       </c>
       <c r="L39" t="n">
-        <v>965.4282826484528</v>
+        <v>1.243384859458843</v>
       </c>
       <c r="M39" t="n">
         <v>1.450971484313413</v>
@@ -37636,16 +37636,16 @@
         <v>1.489374382002779</v>
       </c>
       <c r="O39" t="n">
-        <v>1.362486586628847</v>
+        <v>1.362486586628961</v>
       </c>
       <c r="P39" t="n">
-        <v>19.75526092862356</v>
+        <v>829.0967140685456</v>
       </c>
       <c r="Q39" t="n">
         <v>0.7309862225974939</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3555470370770308</v>
+        <v>118.7118885465111</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K40" t="n">
         <v>278.0915730817343</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8839231881963</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K41" t="n">
-        <v>1.361442175632192</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L41" t="n">
-        <v>1087.608147236995</v>
+        <v>80.15440759788771</v>
       </c>
       <c r="M41" t="n">
         <v>1.879326147397251</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J42" t="n">
         <v>328.3777231598353</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K43" t="n">
         <v>278.0915730817343</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9083906948817457</v>
+        <v>440.5595901422736</v>
       </c>
       <c r="K44" t="n">
-        <v>1.361442175632206</v>
+        <v>844.1395148606605</v>
       </c>
       <c r="L44" t="n">
-        <v>193.8484926489451</v>
+        <v>1087.608147236995</v>
       </c>
       <c r="M44" t="n">
-        <v>1170.614513228762</v>
+        <v>1.879326147397023</v>
       </c>
       <c r="N44" t="n">
-        <v>1139.011739080396</v>
+        <v>131.5579994412888</v>
       </c>
       <c r="O44" t="n">
         <v>991.8837804652144</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.52410592632185</v>
+        <v>26.52410592632187</v>
       </c>
       <c r="J45" t="n">
         <v>328.3777231598353</v>
       </c>
       <c r="K45" t="n">
-        <v>652.6600438743667</v>
+        <v>688.5343248554839</v>
       </c>
       <c r="L45" t="n">
         <v>1.243384859458956</v>
@@ -38116,7 +38116,7 @@
         <v>1.093515604708955</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.9319343358052</v>
+        <v>511.057653354688</v>
       </c>
       <c r="R45" t="n">
         <v>118.7118885465111</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.79365307401844</v>
+        <v>87.79365307401842</v>
       </c>
       <c r="K46" t="n">
         <v>278.0915730817343</v>
